--- a/Code/Results/Cases/Case_5_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.52074896905346</v>
+        <v>14.98943825577119</v>
       </c>
       <c r="C2">
-        <v>6.867314499332101</v>
+        <v>8.45486036487449</v>
       </c>
       <c r="D2">
-        <v>5.020463401636567</v>
+        <v>7.826453265643568</v>
       </c>
       <c r="E2">
-        <v>7.75783291952609</v>
+        <v>13.18243162950826</v>
       </c>
       <c r="F2">
-        <v>25.60982630147088</v>
+        <v>39.21268724597837</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>6.162014128103139</v>
+        <v>10.46998192983844</v>
       </c>
       <c r="K2">
-        <v>10.33608715764755</v>
+        <v>11.17209005334961</v>
       </c>
       <c r="L2">
-        <v>6.299822395651711</v>
+        <v>10.75886745923933</v>
       </c>
       <c r="M2">
-        <v>10.15291187533633</v>
+        <v>15.85931230122856</v>
       </c>
       <c r="N2">
-        <v>14.34649419600309</v>
+        <v>22.14080014276757</v>
       </c>
       <c r="O2">
-        <v>19.30245716506979</v>
+        <v>30.35078949967897</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.76581492992724</v>
+        <v>14.83767363624769</v>
       </c>
       <c r="C3">
-        <v>6.795550340522846</v>
+        <v>8.43378268015935</v>
       </c>
       <c r="D3">
-        <v>4.889586361882561</v>
+        <v>7.818760874871312</v>
       </c>
       <c r="E3">
-        <v>7.765626775150531</v>
+        <v>13.20497416956307</v>
       </c>
       <c r="F3">
-        <v>25.50590803397034</v>
+        <v>39.29629240620882</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>6.205793426969937</v>
+        <v>10.48674579404068</v>
       </c>
       <c r="K3">
-        <v>9.688460239930713</v>
+        <v>11.05898004020345</v>
       </c>
       <c r="L3">
-        <v>6.239960404465053</v>
+        <v>10.76701763653773</v>
       </c>
       <c r="M3">
-        <v>9.883828076610063</v>
+        <v>15.84351969159542</v>
       </c>
       <c r="N3">
-        <v>14.54483736042062</v>
+        <v>22.20101662380855</v>
       </c>
       <c r="O3">
-        <v>19.33758714171475</v>
+        <v>30.43016392084462</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.28324311589489</v>
+        <v>14.74646009688612</v>
       </c>
       <c r="C4">
-        <v>6.751194915570748</v>
+        <v>8.420710087942245</v>
       </c>
       <c r="D4">
-        <v>4.809121524125882</v>
+        <v>7.815012378423022</v>
       </c>
       <c r="E4">
-        <v>7.77296261443363</v>
+        <v>13.22007704451492</v>
       </c>
       <c r="F4">
-        <v>25.45831710392548</v>
+        <v>39.35443384063958</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.233649935738968</v>
+        <v>10.49760597704243</v>
       </c>
       <c r="K4">
-        <v>9.268287930214859</v>
+        <v>10.99079257564687</v>
       </c>
       <c r="L4">
-        <v>6.204906646421119</v>
+        <v>10.77309331754195</v>
       </c>
       <c r="M4">
-        <v>9.718419665731165</v>
+        <v>15.83583246005943</v>
       </c>
       <c r="N4">
-        <v>14.66953043844774</v>
+        <v>22.23974107025965</v>
       </c>
       <c r="O4">
-        <v>19.37092202669315</v>
+        <v>30.48369821670014</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.08199524841381</v>
+        <v>14.70982404545582</v>
       </c>
       <c r="C5">
-        <v>6.733051877166335</v>
+        <v>8.415351013580977</v>
       </c>
       <c r="D5">
-        <v>4.776350828073847</v>
+        <v>7.813731502843781</v>
       </c>
       <c r="E5">
-        <v>7.776584606142759</v>
+        <v>13.22654939544093</v>
       </c>
       <c r="F5">
-        <v>25.44290647209369</v>
+        <v>39.37983782280882</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.245249648527506</v>
+        <v>10.50217458702363</v>
       </c>
       <c r="K5">
-        <v>9.091403159178755</v>
+        <v>10.96335117137761</v>
       </c>
       <c r="L5">
-        <v>6.191057098059518</v>
+        <v>10.77583929229319</v>
       </c>
       <c r="M5">
-        <v>9.651059627715753</v>
+        <v>15.83320834543765</v>
       </c>
       <c r="N5">
-        <v>14.72109447052262</v>
+        <v>22.25596323037436</v>
       </c>
       <c r="O5">
-        <v>19.38737334329395</v>
+        <v>30.50672002068894</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.04830700361753</v>
+        <v>14.70377403356757</v>
       </c>
       <c r="C6">
-        <v>6.730035307885183</v>
+        <v>8.414459246676227</v>
       </c>
       <c r="D6">
-        <v>4.770911828497194</v>
+        <v>7.813533756555792</v>
       </c>
       <c r="E6">
-        <v>7.777223985079364</v>
+        <v>13.22764333519198</v>
       </c>
       <c r="F6">
-        <v>25.44058525812894</v>
+        <v>39.38415943619461</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>6.247190822452424</v>
+        <v>10.50294184953424</v>
       </c>
       <c r="K6">
-        <v>9.061689918735656</v>
+        <v>10.95881622507057</v>
       </c>
       <c r="L6">
-        <v>6.18878386930694</v>
+        <v>10.77631159062841</v>
       </c>
       <c r="M6">
-        <v>9.639880069155629</v>
+        <v>15.83280341377068</v>
       </c>
       <c r="N6">
-        <v>14.72970251312246</v>
+        <v>22.25868361835605</v>
       </c>
       <c r="O6">
-        <v>19.39027558110813</v>
+        <v>30.51061560999844</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.28054734290973</v>
+        <v>14.74596379689705</v>
       </c>
       <c r="C7">
-        <v>6.750950499426857</v>
+        <v>8.420637941376333</v>
       </c>
       <c r="D7">
-        <v>4.808679426486397</v>
+        <v>7.814994103327369</v>
       </c>
       <c r="E7">
-        <v>7.773008912152629</v>
+        <v>13.22016304538289</v>
       </c>
       <c r="F7">
-        <v>25.45809327185771</v>
+        <v>39.35476952174257</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.233805366167494</v>
+        <v>10.49766701139809</v>
       </c>
       <c r="K7">
-        <v>9.265925311835103</v>
+        <v>10.99042105556581</v>
       </c>
       <c r="L7">
-        <v>6.204718095679662</v>
+        <v>10.77312925629362</v>
       </c>
       <c r="M7">
-        <v>9.717510915823665</v>
+        <v>15.83579500741018</v>
       </c>
       <c r="N7">
-        <v>14.67022278533801</v>
+        <v>22.23995805815674</v>
       </c>
       <c r="O7">
-        <v>19.37113240626586</v>
+        <v>30.48400381370398</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.26450233093829</v>
+        <v>14.93672432002258</v>
       </c>
       <c r="C8">
-        <v>6.84263407989611</v>
+        <v>8.447620531384858</v>
       </c>
       <c r="D8">
-        <v>4.975385941300324</v>
+        <v>7.8235996166799</v>
       </c>
       <c r="E8">
-        <v>7.759985660417926</v>
+        <v>13.18994277144607</v>
       </c>
       <c r="F8">
-        <v>25.57057455643813</v>
+        <v>39.24010089852857</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>6.176908267121049</v>
+        <v>10.47564464598154</v>
       </c>
       <c r="K8">
-        <v>10.11746039606968</v>
+        <v>11.13284469143181</v>
       </c>
       <c r="L8">
-        <v>6.278833324613201</v>
+        <v>10.7614556686006</v>
       </c>
       <c r="M8">
-        <v>10.06022567546936</v>
+        <v>15.85345191713106</v>
       </c>
       <c r="N8">
-        <v>14.41429070453002</v>
+        <v>22.16120006803237</v>
       </c>
       <c r="O8">
-        <v>19.31207302651271</v>
+        <v>30.37716174986323</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.03641440010437</v>
+        <v>15.32470085877992</v>
       </c>
       <c r="C9">
-        <v>7.019881102295298</v>
+        <v>8.499452317396218</v>
       </c>
       <c r="D9">
-        <v>5.299547040256319</v>
+        <v>7.848135364505343</v>
       </c>
       <c r="E9">
-        <v>7.755075078189441</v>
+        <v>13.14066723275294</v>
       </c>
       <c r="F9">
-        <v>25.92377555612838</v>
+        <v>39.0692868317745</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>6.072955410117915</v>
+        <v>10.43694055117999</v>
       </c>
       <c r="K9">
-        <v>11.60882630625011</v>
+        <v>11.42089747315587</v>
       </c>
       <c r="L9">
-        <v>6.4373305524836</v>
+        <v>10.74703558540016</v>
       </c>
       <c r="M9">
-        <v>10.72693259150068</v>
+        <v>15.90387347449312</v>
       </c>
       <c r="N9">
-        <v>13.93459151292523</v>
+        <v>22.02059308063244</v>
       </c>
       <c r="O9">
-        <v>19.29372503034468</v>
+        <v>30.20573099641368</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.23557081767097</v>
+        <v>15.61584971034199</v>
       </c>
       <c r="C10">
-        <v>7.148278530232085</v>
+        <v>8.536817980687843</v>
       </c>
       <c r="D10">
-        <v>5.533658967734246</v>
+        <v>7.870728217622132</v>
       </c>
       <c r="E10">
-        <v>7.764581967448198</v>
+        <v>13.11051928720098</v>
       </c>
       <c r="F10">
-        <v>26.26917191121558</v>
+        <v>38.97678120092689</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>6.001053941058676</v>
+        <v>10.41121161155599</v>
       </c>
       <c r="K10">
-        <v>12.59651803019627</v>
+        <v>11.63616428011461</v>
       </c>
       <c r="L10">
-        <v>6.561308770218834</v>
+        <v>10.74156529659041</v>
       </c>
       <c r="M10">
-        <v>11.20873940169657</v>
+        <v>15.95033816151704</v>
       </c>
       <c r="N10">
-        <v>13.59435185510379</v>
+        <v>21.92564140667583</v>
       </c>
       <c r="O10">
-        <v>19.34533765906287</v>
+        <v>30.10301880039714</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.75793143919516</v>
+        <v>15.74911789993033</v>
       </c>
       <c r="C11">
-        <v>7.206243402082264</v>
+        <v>8.553649251027252</v>
       </c>
       <c r="D11">
-        <v>5.638840152854813</v>
+        <v>7.881973576386195</v>
       </c>
       <c r="E11">
-        <v>7.771870390638471</v>
+        <v>13.09811181105028</v>
       </c>
       <c r="F11">
-        <v>26.44592028900962</v>
+        <v>38.94186606478488</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.969276156019741</v>
+        <v>10.40008929282181</v>
       </c>
       <c r="K11">
-        <v>13.02266028365524</v>
+        <v>11.73451927196706</v>
       </c>
       <c r="L11">
-        <v>6.619233787624427</v>
+        <v>10.7401801548923</v>
       </c>
       <c r="M11">
-        <v>11.42530261352876</v>
+        <v>15.973472227847</v>
       </c>
       <c r="N11">
-        <v>13.44190707090612</v>
+        <v>21.88424128782879</v>
       </c>
       <c r="O11">
-        <v>19.38417388372856</v>
+        <v>30.0613414588543</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.95236123021676</v>
+        <v>15.79965906265225</v>
       </c>
       <c r="C12">
-        <v>7.228125640854481</v>
+        <v>8.559997775706387</v>
       </c>
       <c r="D12">
-        <v>5.678447369303775</v>
+        <v>7.88636880944609</v>
       </c>
       <c r="E12">
-        <v>7.775065932402073</v>
+        <v>13.09360077864886</v>
       </c>
       <c r="F12">
-        <v>26.5157433411956</v>
+        <v>38.9296749937441</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.95737331389514</v>
+        <v>10.3959608350277</v>
       </c>
       <c r="K12">
-        <v>13.18072445892634</v>
+        <v>11.77179507604466</v>
       </c>
       <c r="L12">
-        <v>6.641378344835176</v>
+        <v>10.73981344650823</v>
       </c>
       <c r="M12">
-        <v>11.50686921949255</v>
+        <v>15.98251507315572</v>
       </c>
       <c r="N12">
-        <v>13.38448890114894</v>
+        <v>21.86882078835313</v>
       </c>
       <c r="O12">
-        <v>19.40118870129009</v>
+        <v>30.04628526611068</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.91063808675644</v>
+        <v>15.78877144490825</v>
       </c>
       <c r="C13">
-        <v>7.223415982017524</v>
+        <v>8.558631642775451</v>
       </c>
       <c r="D13">
-        <v>5.669927640363857</v>
+        <v>7.885416168297474</v>
       </c>
       <c r="E13">
-        <v>7.7743581929916</v>
+        <v>13.09456398364745</v>
       </c>
       <c r="F13">
-        <v>26.5005759986664</v>
+        <v>38.93225472780981</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.959931040735261</v>
+        <v>10.3968462720773</v>
       </c>
       <c r="K13">
-        <v>13.14682915386398</v>
+        <v>11.76376617638731</v>
       </c>
       <c r="L13">
-        <v>6.636599953064268</v>
+        <v>10.73988541865347</v>
       </c>
       <c r="M13">
-        <v>11.489322980277</v>
+        <v>15.98055504857876</v>
       </c>
       <c r="N13">
-        <v>13.39684160160144</v>
+        <v>21.87213046424692</v>
       </c>
       <c r="O13">
-        <v>19.39741999926143</v>
+        <v>30.04949558752946</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.7739951938709</v>
+        <v>15.75327468526612</v>
       </c>
       <c r="C14">
-        <v>7.208045046661095</v>
+        <v>8.554172057939207</v>
       </c>
       <c r="D14">
-        <v>5.64210330214957</v>
+        <v>7.882332445551453</v>
       </c>
       <c r="E14">
-        <v>7.772124506266312</v>
+        <v>13.09773693280491</v>
       </c>
       <c r="F14">
-        <v>26.45160632391849</v>
+        <v>38.94084244526832</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.968294300409259</v>
+        <v>10.39974797421606</v>
       </c>
       <c r="K14">
-        <v>13.03573043812798</v>
+        <v>11.73758553045733</v>
       </c>
       <c r="L14">
-        <v>6.621051489402663</v>
+        <v>10.74014682767908</v>
       </c>
       <c r="M14">
-        <v>11.43202233905099</v>
+        <v>15.9742105546244</v>
       </c>
       <c r="N14">
-        <v>13.43717719741308</v>
+        <v>21.88296749329284</v>
       </c>
       <c r="O14">
-        <v>19.38552686730223</v>
+        <v>30.06008822261166</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.68985654184923</v>
+        <v>15.73154044598998</v>
       </c>
       <c r="C15">
-        <v>7.198620966676099</v>
+        <v>8.551437128511562</v>
       </c>
       <c r="D15">
-        <v>5.62503017257273</v>
+        <v>7.880461329338882</v>
       </c>
       <c r="E15">
-        <v>7.770813312791964</v>
+        <v>13.09970484612838</v>
       </c>
       <c r="F15">
-        <v>26.42198964043307</v>
+        <v>38.94623687298876</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.973433967787035</v>
+        <v>10.40153619120933</v>
       </c>
       <c r="K15">
-        <v>12.96724941930809</v>
+        <v>11.72155224599977</v>
       </c>
       <c r="L15">
-        <v>6.611554610268517</v>
+        <v>10.74032747479935</v>
       </c>
       <c r="M15">
-        <v>11.39686476478749</v>
+        <v>15.97036101242644</v>
       </c>
       <c r="N15">
-        <v>13.46192340695879</v>
+        <v>21.88963889961058</v>
       </c>
       <c r="O15">
-        <v>19.37854556571668</v>
+        <v>30.06667108829615</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.20096306561677</v>
+        <v>15.60715320051837</v>
       </c>
       <c r="C16">
-        <v>7.144481106277643</v>
+        <v>8.535714566944543</v>
       </c>
       <c r="D16">
-        <v>5.52675570861881</v>
+        <v>7.870012586366086</v>
       </c>
       <c r="E16">
-        <v>7.764166091622594</v>
+        <v>13.11135639932385</v>
       </c>
       <c r="F16">
-        <v>26.25802201824531</v>
+        <v>38.9792071986772</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>6.003149156736198</v>
+        <v>10.41195016029235</v>
       </c>
       <c r="K16">
-        <v>12.56820451787562</v>
+        <v>11.62974254308151</v>
       </c>
       <c r="L16">
-        <v>6.55755310575556</v>
+        <v>10.74167794938632</v>
       </c>
       <c r="M16">
-        <v>11.19452815212815</v>
+        <v>15.9488660852754</v>
       </c>
       <c r="N16">
-        <v>13.60435921785652</v>
+        <v>21.9283830023025</v>
       </c>
       <c r="O16">
-        <v>19.3431172023429</v>
+        <v>30.10584410324203</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.8950751689723</v>
+        <v>15.53102576767076</v>
       </c>
       <c r="C17">
-        <v>7.11115138567155</v>
+        <v>8.52602580175579</v>
       </c>
       <c r="D17">
-        <v>5.466105427534468</v>
+        <v>7.863848882916716</v>
       </c>
       <c r="E17">
-        <v>7.760853987322696</v>
+        <v>13.11883862131269</v>
       </c>
       <c r="F17">
-        <v>26.16251132691034</v>
+        <v>39.0012689663566</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>6.021614628089842</v>
+        <v>10.41848757964256</v>
       </c>
       <c r="K17">
-        <v>12.31748682615248</v>
+        <v>11.57350813464886</v>
       </c>
       <c r="L17">
-        <v>6.524808887193936</v>
+        <v>10.7427884214318</v>
       </c>
       <c r="M17">
-        <v>11.06968315212291</v>
+        <v>15.93618786601266</v>
       </c>
       <c r="N17">
-        <v>13.69231821463414</v>
+        <v>21.95260990114662</v>
       </c>
       <c r="O17">
-        <v>19.32538763715895</v>
+        <v>30.13116840822875</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.71696008966247</v>
+        <v>15.4873193079104</v>
       </c>
       <c r="C18">
-        <v>7.091939448878421</v>
+        <v>8.520437473155066</v>
       </c>
       <c r="D18">
-        <v>5.431098756198463</v>
+        <v>7.860394918275955</v>
       </c>
       <c r="E18">
-        <v>7.759227346110942</v>
+        <v>13.1232652484797</v>
       </c>
       <c r="F18">
-        <v>26.10941952411893</v>
+        <v>39.01463283611692</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>6.032323258245293</v>
+        <v>10.42230252295616</v>
       </c>
       <c r="K18">
-        <v>12.17109869282276</v>
+        <v>11.54120579832063</v>
       </c>
       <c r="L18">
-        <v>6.50611957681966</v>
+        <v>10.74353103791678</v>
       </c>
       <c r="M18">
-        <v>10.99763312364277</v>
+        <v>15.9290839567068</v>
       </c>
       <c r="N18">
-        <v>13.74313103493893</v>
+        <v>21.96671348731497</v>
       </c>
       <c r="O18">
-        <v>19.31662959279592</v>
+        <v>30.14620930418286</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.65628135502318</v>
+        <v>15.47253611254334</v>
       </c>
       <c r="C19">
-        <v>7.085427609257102</v>
+        <v>8.518542715818047</v>
       </c>
       <c r="D19">
-        <v>5.419226169252203</v>
+        <v>7.859241203193531</v>
       </c>
       <c r="E19">
-        <v>7.758724121807798</v>
+        <v>13.12478517859282</v>
       </c>
       <c r="F19">
-        <v>26.09175794252532</v>
+        <v>39.01927345713796</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>6.035964185330298</v>
+        <v>10.42360361874854</v>
       </c>
       <c r="K19">
-        <v>12.1211587497283</v>
+        <v>11.53027697551964</v>
       </c>
       <c r="L19">
-        <v>6.499816783748037</v>
+        <v>10.74380034546465</v>
       </c>
       <c r="M19">
-        <v>10.97319868233848</v>
+        <v>15.92671116951392</v>
       </c>
       <c r="N19">
-        <v>13.76037413029122</v>
+        <v>21.97151776514173</v>
       </c>
       <c r="O19">
-        <v>19.31390846119294</v>
+        <v>30.15138346686851</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.92786312173466</v>
+        <v>15.53912169315865</v>
       </c>
       <c r="C20">
-        <v>7.11470372361267</v>
+        <v>8.527058811017792</v>
       </c>
       <c r="D20">
-        <v>5.472574654894396</v>
+        <v>7.864495593578569</v>
       </c>
       <c r="E20">
-        <v>7.761177685828204</v>
+        <v>13.11802939453035</v>
       </c>
       <c r="F20">
-        <v>26.17248729236434</v>
+        <v>38.99885064154724</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.019639884417535</v>
+        <v>10.41778599194068</v>
       </c>
       <c r="K20">
-        <v>12.34440181044012</v>
+        <v>11.57949023925845</v>
       </c>
       <c r="L20">
-        <v>6.528279702915593</v>
+        <v>10.74265946226731</v>
       </c>
       <c r="M20">
-        <v>11.08299870802448</v>
+        <v>15.93751803246266</v>
       </c>
       <c r="N20">
-        <v>13.68293212650115</v>
+        <v>21.9500134325771</v>
       </c>
       <c r="O20">
-        <v>19.32712526863006</v>
+        <v>30.12842342647613</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.81422247870049</v>
+        <v>15.76369923798984</v>
       </c>
       <c r="C21">
-        <v>7.212561731995351</v>
+        <v>8.555482636939532</v>
       </c>
       <c r="D21">
-        <v>5.650282274394623</v>
+        <v>7.883234514221021</v>
       </c>
       <c r="E21">
-        <v>7.772768697768528</v>
+        <v>13.09679987875783</v>
       </c>
       <c r="F21">
-        <v>26.46591087455466</v>
+        <v>38.93829205702324</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.965834285930481</v>
+        <v>10.39889341540593</v>
       </c>
       <c r="K21">
-        <v>13.06845235601298</v>
+        <v>11.74527482557385</v>
       </c>
       <c r="L21">
-        <v>6.625612840112033</v>
+        <v>10.74006576935139</v>
       </c>
       <c r="M21">
-        <v>11.44886538655104</v>
+        <v>15.97606645850618</v>
       </c>
       <c r="N21">
-        <v>13.4253214734178</v>
+        <v>21.87977743390709</v>
       </c>
       <c r="O21">
-        <v>19.38895672338015</v>
+        <v>30.05695719989169</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.37381528525588</v>
+        <v>15.91089353748761</v>
       </c>
       <c r="C22">
-        <v>7.276120976754482</v>
+        <v>8.573912333320106</v>
       </c>
       <c r="D22">
-        <v>5.765113854405688</v>
+        <v>7.896278062267472</v>
       </c>
       <c r="E22">
-        <v>7.782887344310914</v>
+        <v>13.08401727732524</v>
       </c>
       <c r="F22">
-        <v>26.67456771798595</v>
+        <v>38.9047200912793</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.931429614336853</v>
+        <v>10.38703153230939</v>
       </c>
       <c r="K22">
-        <v>13.52240106255459</v>
+        <v>11.85379078331003</v>
       </c>
       <c r="L22">
-        <v>6.690442915665501</v>
+        <v>10.73929008997701</v>
       </c>
       <c r="M22">
-        <v>11.68538347672142</v>
+        <v>16.00290423633168</v>
       </c>
       <c r="N22">
-        <v>13.25874809661562</v>
+        <v>21.83537061650434</v>
       </c>
       <c r="O22">
-        <v>19.44286843591559</v>
+        <v>30.01448234336405</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.07696410664134</v>
+        <v>15.83230881152295</v>
       </c>
       <c r="C23">
-        <v>7.242235668352818</v>
+        <v>8.564089886189869</v>
       </c>
       <c r="D23">
-        <v>5.703956102569364</v>
+        <v>7.889244376313161</v>
       </c>
       <c r="E23">
-        <v>7.777251009018096</v>
+        <v>13.09073984131769</v>
       </c>
       <c r="F23">
-        <v>26.56163650423725</v>
+        <v>38.92208853217491</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.949723509022032</v>
+        <v>10.39331813472529</v>
       </c>
       <c r="K23">
-        <v>13.28187355972758</v>
+        <v>11.79586863825757</v>
       </c>
       <c r="L23">
-        <v>6.655733761747196</v>
+        <v>10.73962024239205</v>
       </c>
       <c r="M23">
-        <v>11.55940673931197</v>
+        <v>15.98843157849138</v>
       </c>
       <c r="N23">
-        <v>13.34749661694474</v>
+        <v>21.85893481425647</v>
       </c>
       <c r="O23">
-        <v>19.41282637617065</v>
+        <v>30.03676460190052</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.91304671148943</v>
+        <v>15.5354613343973</v>
       </c>
       <c r="C24">
-        <v>7.113097867795109</v>
+        <v>8.526591843916544</v>
       </c>
       <c r="D24">
-        <v>5.469650344543407</v>
+        <v>7.86420293633681</v>
       </c>
       <c r="E24">
-        <v>7.761030477995592</v>
+        <v>13.11839485656913</v>
       </c>
       <c r="F24">
-        <v>26.16797149932014</v>
+        <v>38.99994184722067</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>6.020532377417856</v>
+        <v>10.41810300374094</v>
       </c>
       <c r="K24">
-        <v>12.33224054734695</v>
+        <v>11.57678564151831</v>
       </c>
       <c r="L24">
-        <v>6.52671012345782</v>
+        <v>10.74271744010117</v>
       </c>
       <c r="M24">
-        <v>11.07697959664345</v>
+        <v>15.93691608770252</v>
       </c>
       <c r="N24">
-        <v>13.68717481492734</v>
+        <v>21.95118675012468</v>
       </c>
       <c r="O24">
-        <v>19.32633522356704</v>
+        <v>30.12966293254692</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.57472421134595</v>
+        <v>15.21849856602434</v>
       </c>
       <c r="C25">
-        <v>6.972233140713969</v>
+        <v>8.485551925346831</v>
       </c>
       <c r="D25">
-        <v>5.21240311921362</v>
+        <v>7.840687938428345</v>
       </c>
       <c r="E25">
-        <v>7.754139398455609</v>
+        <v>13.15293186810355</v>
       </c>
       <c r="F25">
-        <v>25.81348403344805</v>
+        <v>39.10970493415715</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>4.251792669778333</v>
+        <v>7.344005520526261</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>6.100279087904414</v>
+        <v>10.44693385594804</v>
       </c>
       <c r="K25">
-        <v>11.22441811342606</v>
+        <v>11.34220918585589</v>
       </c>
       <c r="L25">
-        <v>6.393093273115376</v>
+        <v>10.75003368283881</v>
       </c>
       <c r="M25">
-        <v>10.54765835331319</v>
+        <v>15.88856272663742</v>
       </c>
       <c r="N25">
-        <v>14.06212122203396</v>
+        <v>22.0571582745776</v>
       </c>
       <c r="O25">
-        <v>19.28766963315783</v>
+        <v>30.24802790656703</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_192/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_192/res_line/loading_percent.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>14.98943825577119</v>
+        <v>13.52074896905344</v>
       </c>
       <c r="C2">
-        <v>8.45486036487449</v>
+        <v>6.867314499331973</v>
       </c>
       <c r="D2">
-        <v>7.826453265643568</v>
+        <v>5.020463401636658</v>
       </c>
       <c r="E2">
-        <v>13.18243162950826</v>
+        <v>7.757832919525908</v>
       </c>
       <c r="F2">
-        <v>39.21268724597837</v>
+        <v>25.60982630147088</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.46998192983844</v>
+        <v>6.162014128102943</v>
       </c>
       <c r="K2">
-        <v>11.17209005334961</v>
+        <v>10.33608715764756</v>
       </c>
       <c r="L2">
-        <v>10.75886745923933</v>
+        <v>6.299822395651737</v>
       </c>
       <c r="M2">
-        <v>15.85931230122856</v>
+        <v>10.15291187533627</v>
       </c>
       <c r="N2">
-        <v>22.14080014276757</v>
+        <v>14.34649419600306</v>
       </c>
       <c r="O2">
-        <v>30.35078949967897</v>
+        <v>19.30245716506974</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.83767363624769</v>
+        <v>12.76581492992726</v>
       </c>
       <c r="C3">
-        <v>8.43378268015935</v>
+        <v>6.79555034052284</v>
       </c>
       <c r="D3">
-        <v>7.818760874871312</v>
+        <v>4.889586361882547</v>
       </c>
       <c r="E3">
-        <v>13.20497416956307</v>
+        <v>7.765626775150472</v>
       </c>
       <c r="F3">
-        <v>39.29629240620882</v>
+        <v>25.50590803397043</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.48674579404068</v>
+        <v>6.205793426969905</v>
       </c>
       <c r="K3">
-        <v>11.05898004020345</v>
+        <v>9.688460239930702</v>
       </c>
       <c r="L3">
-        <v>10.76701763653773</v>
+        <v>6.239960404464999</v>
       </c>
       <c r="M3">
-        <v>15.84351969159542</v>
+        <v>9.883828076610046</v>
       </c>
       <c r="N3">
-        <v>22.20101662380855</v>
+        <v>14.54483736042062</v>
       </c>
       <c r="O3">
-        <v>30.43016392084462</v>
+        <v>19.33758714171483</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>14.74646009688612</v>
+        <v>12.2832431158949</v>
       </c>
       <c r="C4">
-        <v>8.420710087942245</v>
+        <v>6.75119491557076</v>
       </c>
       <c r="D4">
-        <v>7.815012378423022</v>
+        <v>4.809121524125916</v>
       </c>
       <c r="E4">
-        <v>13.22007704451492</v>
+        <v>7.77296261443369</v>
       </c>
       <c r="F4">
-        <v>39.35443384063958</v>
+        <v>25.45831710392545</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.49760597704243</v>
+        <v>6.233649935739098</v>
       </c>
       <c r="K4">
-        <v>10.99079257564687</v>
+        <v>9.268287930214838</v>
       </c>
       <c r="L4">
-        <v>10.77309331754195</v>
+        <v>6.204906646421176</v>
       </c>
       <c r="M4">
-        <v>15.83583246005943</v>
+        <v>9.718419665731208</v>
       </c>
       <c r="N4">
-        <v>22.23974107025965</v>
+        <v>14.66953043844771</v>
       </c>
       <c r="O4">
-        <v>30.48369821670014</v>
+        <v>19.37092202669319</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>14.70982404545582</v>
+        <v>12.08199524841373</v>
       </c>
       <c r="C5">
-        <v>8.415351013580977</v>
+        <v>6.733051877166334</v>
       </c>
       <c r="D5">
-        <v>7.813731502843781</v>
+        <v>4.776350828073896</v>
       </c>
       <c r="E5">
-        <v>13.22654939544093</v>
+        <v>7.776584606142635</v>
       </c>
       <c r="F5">
-        <v>39.37983782280882</v>
+        <v>25.44290647209343</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.50217458702363</v>
+        <v>6.245249648527373</v>
       </c>
       <c r="K5">
-        <v>10.96335117137761</v>
+        <v>9.091403159178805</v>
       </c>
       <c r="L5">
-        <v>10.77583929229319</v>
+        <v>6.191057098059403</v>
       </c>
       <c r="M5">
-        <v>15.83320834543765</v>
+        <v>9.651059627715664</v>
       </c>
       <c r="N5">
-        <v>22.25596323037436</v>
+        <v>14.72109447052256</v>
       </c>
       <c r="O5">
-        <v>30.50672002068894</v>
+        <v>19.38737334329372</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>14.70377403356757</v>
+        <v>12.04830700361756</v>
       </c>
       <c r="C6">
-        <v>8.414459246676227</v>
+        <v>6.73003530788531</v>
       </c>
       <c r="D6">
-        <v>7.813533756555792</v>
+        <v>4.770911828497194</v>
       </c>
       <c r="E6">
-        <v>13.22764333519198</v>
+        <v>7.777223985079365</v>
       </c>
       <c r="F6">
-        <v>39.38415943619461</v>
+        <v>25.44058525812898</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.50294184953424</v>
+        <v>6.247190822452424</v>
       </c>
       <c r="K6">
-        <v>10.95881622507057</v>
+        <v>9.061689918735651</v>
       </c>
       <c r="L6">
-        <v>10.77631159062841</v>
+        <v>6.188783869306913</v>
       </c>
       <c r="M6">
-        <v>15.83280341377068</v>
+        <v>9.639880069155629</v>
       </c>
       <c r="N6">
-        <v>22.25868361835605</v>
+        <v>14.7297025131225</v>
       </c>
       <c r="O6">
-        <v>30.51061560999844</v>
+        <v>19.39027558110816</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>14.74596379689705</v>
+        <v>12.28054734290975</v>
       </c>
       <c r="C7">
-        <v>8.420637941376333</v>
+        <v>6.750950499426844</v>
       </c>
       <c r="D7">
-        <v>7.814994103327369</v>
+        <v>4.808679426486415</v>
       </c>
       <c r="E7">
-        <v>13.22016304538289</v>
+        <v>7.773008912152693</v>
       </c>
       <c r="F7">
-        <v>39.35476952174257</v>
+        <v>25.45809327185766</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.49766701139809</v>
+        <v>6.233805366167528</v>
       </c>
       <c r="K7">
-        <v>10.99042105556581</v>
+        <v>9.265925311835094</v>
       </c>
       <c r="L7">
-        <v>10.77312925629362</v>
+        <v>6.204718095679715</v>
       </c>
       <c r="M7">
-        <v>15.83579500741018</v>
+        <v>9.717510915823693</v>
       </c>
       <c r="N7">
-        <v>22.23995805815674</v>
+        <v>14.67022278533797</v>
       </c>
       <c r="O7">
-        <v>30.48400381370398</v>
+        <v>19.37113240626582</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.93672432002258</v>
+        <v>13.26450233093822</v>
       </c>
       <c r="C8">
-        <v>8.447620531384858</v>
+        <v>6.842634079895735</v>
       </c>
       <c r="D8">
-        <v>7.8235996166799</v>
+        <v>4.975385941300251</v>
       </c>
       <c r="E8">
-        <v>13.18994277144607</v>
+        <v>7.759985660417752</v>
       </c>
       <c r="F8">
-        <v>39.24010089852857</v>
+        <v>25.57057455643801</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.47564464598154</v>
+        <v>6.176908267120953</v>
       </c>
       <c r="K8">
-        <v>11.13284469143181</v>
+        <v>10.11746039606968</v>
       </c>
       <c r="L8">
-        <v>10.7614556686006</v>
+        <v>6.278833324613185</v>
       </c>
       <c r="M8">
-        <v>15.85345191713106</v>
+        <v>10.06022567546931</v>
       </c>
       <c r="N8">
-        <v>22.16120006803237</v>
+        <v>14.41429070452995</v>
       </c>
       <c r="O8">
-        <v>30.37716174986323</v>
+        <v>19.31207302651261</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.32470085877992</v>
+        <v>15.03641440010436</v>
       </c>
       <c r="C9">
-        <v>8.499452317396218</v>
+        <v>7.019881102295578</v>
       </c>
       <c r="D9">
-        <v>7.848135364505343</v>
+        <v>5.299547040256298</v>
       </c>
       <c r="E9">
-        <v>13.14066723275294</v>
+        <v>7.755075078189426</v>
       </c>
       <c r="F9">
-        <v>39.0692868317745</v>
+        <v>25.92377555612848</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.43694055117999</v>
+        <v>6.072955410117944</v>
       </c>
       <c r="K9">
-        <v>11.42089747315587</v>
+        <v>11.6088263062501</v>
       </c>
       <c r="L9">
-        <v>10.74703558540016</v>
+        <v>6.437330552483543</v>
       </c>
       <c r="M9">
-        <v>15.90387347449312</v>
+        <v>10.72693259150069</v>
       </c>
       <c r="N9">
-        <v>22.02059308063244</v>
+        <v>13.93459151292534</v>
       </c>
       <c r="O9">
-        <v>30.20573099641368</v>
+        <v>19.29372503034478</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.61584971034199</v>
+        <v>16.23557081767097</v>
       </c>
       <c r="C10">
-        <v>8.536817980687843</v>
+        <v>7.148278530232075</v>
       </c>
       <c r="D10">
-        <v>7.870728217622132</v>
+        <v>5.53365896773431</v>
       </c>
       <c r="E10">
-        <v>13.11051928720098</v>
+        <v>7.764581967448142</v>
       </c>
       <c r="F10">
-        <v>38.97678120092689</v>
+        <v>26.26917191121555</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.41121161155599</v>
+        <v>6.001053941058577</v>
       </c>
       <c r="K10">
-        <v>11.63616428011461</v>
+        <v>12.59651803019632</v>
       </c>
       <c r="L10">
-        <v>10.74156529659041</v>
+        <v>6.561308770218799</v>
       </c>
       <c r="M10">
-        <v>15.95033816151704</v>
+        <v>11.20873940169653</v>
       </c>
       <c r="N10">
-        <v>21.92564140667583</v>
+        <v>13.59435185510379</v>
       </c>
       <c r="O10">
-        <v>30.10301880039714</v>
+        <v>19.34533765906281</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.74911789993033</v>
+        <v>16.75793143919516</v>
       </c>
       <c r="C11">
-        <v>8.553649251027252</v>
+        <v>7.206243402082409</v>
       </c>
       <c r="D11">
-        <v>7.881973576386195</v>
+        <v>5.63884015285482</v>
       </c>
       <c r="E11">
-        <v>13.09811181105028</v>
+        <v>7.771870390638512</v>
       </c>
       <c r="F11">
-        <v>38.94186606478488</v>
+        <v>26.44592028900962</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.40008929282181</v>
+        <v>5.969276156019741</v>
       </c>
       <c r="K11">
-        <v>11.73451927196706</v>
+        <v>13.02266028365526</v>
       </c>
       <c r="L11">
-        <v>10.7401801548923</v>
+        <v>6.619233787624447</v>
       </c>
       <c r="M11">
-        <v>15.973472227847</v>
+        <v>11.42530261352877</v>
       </c>
       <c r="N11">
-        <v>21.88424128782879</v>
+        <v>13.44190707090612</v>
       </c>
       <c r="O11">
-        <v>30.0613414588543</v>
+        <v>19.38417388372855</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.79965906265225</v>
+        <v>16.95236123021673</v>
       </c>
       <c r="C12">
-        <v>8.559997775706387</v>
+        <v>7.228125640854355</v>
       </c>
       <c r="D12">
-        <v>7.88636880944609</v>
+        <v>5.67844736930384</v>
       </c>
       <c r="E12">
-        <v>13.09360077864886</v>
+        <v>7.775065932402023</v>
       </c>
       <c r="F12">
-        <v>38.9296749937441</v>
+        <v>26.51574334119552</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.3959608350277</v>
+        <v>5.957373313895042</v>
       </c>
       <c r="K12">
-        <v>11.77179507604466</v>
+        <v>13.18072445892636</v>
       </c>
       <c r="L12">
-        <v>10.73981344650823</v>
+        <v>6.641378344835205</v>
       </c>
       <c r="M12">
-        <v>15.98251507315572</v>
+        <v>11.50686921949252</v>
       </c>
       <c r="N12">
-        <v>21.86882078835313</v>
+        <v>13.38448890114887</v>
       </c>
       <c r="O12">
-        <v>30.04628526611068</v>
+        <v>19.40118870128997</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.78877144490825</v>
+        <v>16.91063808675643</v>
       </c>
       <c r="C13">
-        <v>8.558631642775451</v>
+        <v>7.223415982017284</v>
       </c>
       <c r="D13">
-        <v>7.885416168297474</v>
+        <v>5.669927640363765</v>
       </c>
       <c r="E13">
-        <v>13.09456398364745</v>
+        <v>7.774358192991437</v>
       </c>
       <c r="F13">
-        <v>38.93225472780981</v>
+        <v>26.50057599866618</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.3968462720773</v>
+        <v>5.959931040735229</v>
       </c>
       <c r="K13">
-        <v>11.76376617638731</v>
+        <v>13.14682915386399</v>
       </c>
       <c r="L13">
-        <v>10.73988541865347</v>
+        <v>6.636599953064174</v>
       </c>
       <c r="M13">
-        <v>15.98055504857876</v>
+        <v>11.48932298027696</v>
       </c>
       <c r="N13">
-        <v>21.87213046424692</v>
+        <v>13.39684160160131</v>
       </c>
       <c r="O13">
-        <v>30.04949558752946</v>
+        <v>19.39741999926127</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75327468526612</v>
+        <v>16.77399519387091</v>
       </c>
       <c r="C14">
-        <v>8.554172057939207</v>
+        <v>7.20804504666111</v>
       </c>
       <c r="D14">
-        <v>7.882332445551453</v>
+        <v>5.64210330214952</v>
       </c>
       <c r="E14">
-        <v>13.09773693280491</v>
+        <v>7.772124506266246</v>
       </c>
       <c r="F14">
-        <v>38.94084244526832</v>
+        <v>26.45160632391834</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.39974797421606</v>
+        <v>5.968294300409226</v>
       </c>
       <c r="K14">
-        <v>11.73758553045733</v>
+        <v>13.03573043812801</v>
       </c>
       <c r="L14">
-        <v>10.74014682767908</v>
+        <v>6.621051489402598</v>
       </c>
       <c r="M14">
-        <v>15.9742105546244</v>
+        <v>11.43202233905096</v>
       </c>
       <c r="N14">
-        <v>21.88296749329284</v>
+        <v>13.43717719741298</v>
       </c>
       <c r="O14">
-        <v>30.06008822261166</v>
+        <v>19.38552686730208</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.73154044598998</v>
+        <v>16.68985654184923</v>
       </c>
       <c r="C15">
-        <v>8.551437128511562</v>
+        <v>7.198620966675954</v>
       </c>
       <c r="D15">
-        <v>7.880461329338882</v>
+        <v>5.625030172572657</v>
       </c>
       <c r="E15">
-        <v>13.09970484612838</v>
+        <v>7.770813312791915</v>
       </c>
       <c r="F15">
-        <v>38.94623687298876</v>
+        <v>26.42198964043308</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.40153619120933</v>
+        <v>5.973433967787069</v>
       </c>
       <c r="K15">
-        <v>11.72155224599977</v>
+        <v>12.96724941930809</v>
       </c>
       <c r="L15">
-        <v>10.74032747479935</v>
+        <v>6.611554610268511</v>
       </c>
       <c r="M15">
-        <v>15.97036101242644</v>
+        <v>11.39686476478748</v>
       </c>
       <c r="N15">
-        <v>21.88963889961058</v>
+        <v>13.46192340695883</v>
       </c>
       <c r="O15">
-        <v>30.06667108829615</v>
+        <v>19.37854556571675</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.60715320051837</v>
+        <v>16.20096306561678</v>
       </c>
       <c r="C16">
-        <v>8.535714566944543</v>
+        <v>7.144481106277651</v>
       </c>
       <c r="D16">
-        <v>7.870012586366086</v>
+        <v>5.52675570861875</v>
       </c>
       <c r="E16">
-        <v>13.11135639932385</v>
+        <v>7.764166091622481</v>
       </c>
       <c r="F16">
-        <v>38.9792071986772</v>
+        <v>26.25802201824528</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.41195016029235</v>
+        <v>6.003149156736195</v>
       </c>
       <c r="K16">
-        <v>11.62974254308151</v>
+        <v>12.56820451787559</v>
       </c>
       <c r="L16">
-        <v>10.74167794938632</v>
+        <v>6.55755310575551</v>
       </c>
       <c r="M16">
-        <v>15.9488660852754</v>
+        <v>11.19452815212815</v>
       </c>
       <c r="N16">
-        <v>21.9283830023025</v>
+        <v>13.60435921785652</v>
       </c>
       <c r="O16">
-        <v>30.10584410324203</v>
+        <v>19.34311720234293</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.53102576767076</v>
+        <v>15.8950751689723</v>
       </c>
       <c r="C17">
-        <v>8.52602580175579</v>
+        <v>7.111151385671678</v>
       </c>
       <c r="D17">
-        <v>7.863848882916716</v>
+        <v>5.466105427534639</v>
       </c>
       <c r="E17">
-        <v>13.11883862131269</v>
+        <v>7.760853987322748</v>
       </c>
       <c r="F17">
-        <v>39.0012689663566</v>
+        <v>26.16251132691038</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.41848757964256</v>
+        <v>6.021614628089778</v>
       </c>
       <c r="K17">
-        <v>11.57350813464886</v>
+        <v>12.31748682615252</v>
       </c>
       <c r="L17">
-        <v>10.7427884214318</v>
+        <v>6.524808887193911</v>
       </c>
       <c r="M17">
-        <v>15.93618786601266</v>
+        <v>11.06968315212291</v>
       </c>
       <c r="N17">
-        <v>21.95260990114662</v>
+        <v>13.69231821463414</v>
       </c>
       <c r="O17">
-        <v>30.13116840822875</v>
+        <v>19.32538763715894</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.4873193079104</v>
+        <v>15.71696008966244</v>
       </c>
       <c r="C18">
-        <v>8.520437473155066</v>
+        <v>7.091939448877917</v>
       </c>
       <c r="D18">
-        <v>7.860394918275955</v>
+        <v>5.431098756198365</v>
       </c>
       <c r="E18">
-        <v>13.1232652484797</v>
+        <v>7.75922734611088</v>
       </c>
       <c r="F18">
-        <v>39.01463283611692</v>
+        <v>26.10941952411889</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.42230252295616</v>
+        <v>6.032323258245296</v>
       </c>
       <c r="K18">
-        <v>11.54120579832063</v>
+        <v>12.17109869282276</v>
       </c>
       <c r="L18">
-        <v>10.74353103791678</v>
+        <v>6.506119576819724</v>
       </c>
       <c r="M18">
-        <v>15.9290839567068</v>
+        <v>10.99763312364275</v>
       </c>
       <c r="N18">
-        <v>21.96671348731497</v>
+        <v>13.74313103493893</v>
       </c>
       <c r="O18">
-        <v>30.14620930418286</v>
+        <v>19.31662959279593</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.47253611254334</v>
+        <v>15.6562813550232</v>
       </c>
       <c r="C19">
-        <v>8.518542715818047</v>
+        <v>7.085427609257358</v>
       </c>
       <c r="D19">
-        <v>7.859241203193531</v>
+        <v>5.419226169252124</v>
       </c>
       <c r="E19">
-        <v>13.12478517859282</v>
+        <v>7.758724121807791</v>
       </c>
       <c r="F19">
-        <v>39.01927345713796</v>
+        <v>26.09175794252527</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.42360361874854</v>
+        <v>6.035964185330327</v>
       </c>
       <c r="K19">
-        <v>11.53027697551964</v>
+        <v>12.12115874972827</v>
       </c>
       <c r="L19">
-        <v>10.74380034546465</v>
+        <v>6.499816783747948</v>
       </c>
       <c r="M19">
-        <v>15.92671116951392</v>
+        <v>10.9731986823385</v>
       </c>
       <c r="N19">
-        <v>21.97151776514173</v>
+        <v>13.76037413029115</v>
       </c>
       <c r="O19">
-        <v>30.15138346686851</v>
+        <v>19.31390846119294</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.53912169315865</v>
+        <v>15.92786312173466</v>
       </c>
       <c r="C20">
-        <v>8.527058811017792</v>
+        <v>7.114703723612656</v>
       </c>
       <c r="D20">
-        <v>7.864495593578569</v>
+        <v>5.472574654894245</v>
       </c>
       <c r="E20">
-        <v>13.11802939453035</v>
+        <v>7.761177685828089</v>
       </c>
       <c r="F20">
-        <v>38.99885064154724</v>
+        <v>26.17248729236428</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.41778599194068</v>
+        <v>6.019639884417503</v>
       </c>
       <c r="K20">
-        <v>11.57949023925845</v>
+        <v>12.34440181044011</v>
       </c>
       <c r="L20">
-        <v>10.74265946226731</v>
+        <v>6.528279702915516</v>
       </c>
       <c r="M20">
-        <v>15.93751803246266</v>
+        <v>11.08299870802445</v>
       </c>
       <c r="N20">
-        <v>21.9500134325771</v>
+        <v>13.68293212650119</v>
       </c>
       <c r="O20">
-        <v>30.12842342647613</v>
+        <v>19.32712526863007</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.76369923798984</v>
+        <v>16.81422247870049</v>
       </c>
       <c r="C21">
-        <v>8.555482636939532</v>
+        <v>7.212561731995358</v>
       </c>
       <c r="D21">
-        <v>7.883234514221021</v>
+        <v>5.650282274394582</v>
       </c>
       <c r="E21">
-        <v>13.09679987875783</v>
+        <v>7.77276869776852</v>
       </c>
       <c r="F21">
-        <v>38.93829205702324</v>
+        <v>26.46591087455469</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.39889341540593</v>
+        <v>5.965834285930446</v>
       </c>
       <c r="K21">
-        <v>11.74527482557385</v>
+        <v>13.06845235601297</v>
       </c>
       <c r="L21">
-        <v>10.74006576935139</v>
+        <v>6.625612840112057</v>
       </c>
       <c r="M21">
-        <v>15.97606645850618</v>
+        <v>11.44886538655103</v>
       </c>
       <c r="N21">
-        <v>21.87977743390709</v>
+        <v>13.42532147341783</v>
       </c>
       <c r="O21">
-        <v>30.05695719989169</v>
+        <v>19.38895672338016</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.91089353748761</v>
+        <v>17.37381528525586</v>
       </c>
       <c r="C22">
-        <v>8.573912333320106</v>
+        <v>7.276120976754497</v>
       </c>
       <c r="D22">
-        <v>7.896278062267472</v>
+        <v>5.765113854405559</v>
       </c>
       <c r="E22">
-        <v>13.08401727732524</v>
+        <v>7.782887344310968</v>
       </c>
       <c r="F22">
-        <v>38.9047200912793</v>
+        <v>26.6745677179857</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.38703153230939</v>
+        <v>5.931429614336983</v>
       </c>
       <c r="K22">
-        <v>11.85379078331003</v>
+        <v>13.52240106255466</v>
       </c>
       <c r="L22">
-        <v>10.73929008997701</v>
+        <v>6.690442915665551</v>
       </c>
       <c r="M22">
-        <v>16.00290423633168</v>
+        <v>11.68538347672141</v>
       </c>
       <c r="N22">
-        <v>21.83537061650434</v>
+        <v>13.25874809661549</v>
       </c>
       <c r="O22">
-        <v>30.01448234336405</v>
+        <v>19.44286843591542</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.83230881152295</v>
+        <v>17.07696410664133</v>
       </c>
       <c r="C23">
-        <v>8.564089886189869</v>
+        <v>7.242235668352946</v>
       </c>
       <c r="D23">
-        <v>7.889244376313161</v>
+        <v>5.703956102569338</v>
       </c>
       <c r="E23">
-        <v>13.09073984131769</v>
+        <v>7.777251009018038</v>
       </c>
       <c r="F23">
-        <v>38.92208853217491</v>
+        <v>26.56163650423717</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.39331813472529</v>
+        <v>5.949723509021963</v>
       </c>
       <c r="K23">
-        <v>11.79586863825757</v>
+        <v>13.28187355972761</v>
       </c>
       <c r="L23">
-        <v>10.73962024239205</v>
+        <v>6.655733761747146</v>
       </c>
       <c r="M23">
-        <v>15.98843157849138</v>
+        <v>11.55940673931194</v>
       </c>
       <c r="N23">
-        <v>21.85893481425647</v>
+        <v>13.34749661694471</v>
       </c>
       <c r="O23">
-        <v>30.03676460190052</v>
+        <v>19.41282637617056</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.5354613343973</v>
+        <v>15.91304671148942</v>
       </c>
       <c r="C24">
-        <v>8.526591843916544</v>
+        <v>7.113097867794853</v>
       </c>
       <c r="D24">
-        <v>7.86420293633681</v>
+        <v>5.469650344543291</v>
       </c>
       <c r="E24">
-        <v>13.11839485656913</v>
+        <v>7.761030477995537</v>
       </c>
       <c r="F24">
-        <v>38.99994184722067</v>
+        <v>26.16797149931997</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.41810300374094</v>
+        <v>6.020532377417888</v>
       </c>
       <c r="K24">
-        <v>11.57678564151831</v>
+        <v>12.33224054734699</v>
       </c>
       <c r="L24">
-        <v>10.74271744010117</v>
+        <v>6.526710123457814</v>
       </c>
       <c r="M24">
-        <v>15.93691608770252</v>
+        <v>11.07697959664342</v>
       </c>
       <c r="N24">
-        <v>21.95118675012468</v>
+        <v>13.68717481492734</v>
       </c>
       <c r="O24">
-        <v>30.12966293254692</v>
+        <v>19.32633522356697</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.21849856602434</v>
+        <v>14.57472421134593</v>
       </c>
       <c r="C25">
-        <v>8.485551925346831</v>
+        <v>6.972233140714216</v>
       </c>
       <c r="D25">
-        <v>7.840687938428345</v>
+        <v>5.212403119213612</v>
       </c>
       <c r="E25">
-        <v>13.15293186810355</v>
+        <v>7.754139398455492</v>
       </c>
       <c r="F25">
-        <v>39.10970493415715</v>
+        <v>25.81348403344787</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>7.344005520526261</v>
+        <v>4.251792669778333</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.44693385594804</v>
+        <v>6.100279087904381</v>
       </c>
       <c r="K25">
-        <v>11.34220918585589</v>
+        <v>11.22441811342609</v>
       </c>
       <c r="L25">
-        <v>10.75003368283881</v>
+        <v>6.393093273115295</v>
       </c>
       <c r="M25">
-        <v>15.88856272663742</v>
+        <v>10.5476583533131</v>
       </c>
       <c r="N25">
-        <v>22.0571582745776</v>
+        <v>14.06212122203392</v>
       </c>
       <c r="O25">
-        <v>30.24802790656703</v>
+        <v>19.28766963315768</v>
       </c>
     </row>
   </sheetData>
